--- a/biology/Botanique/Gesse_des_bois/Gesse_des_bois.xlsx
+++ b/biology/Botanique/Gesse_des_bois/Gesse_des_bois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lathyrus sylvestris
 La gesse des bois (Lathyrus sylvestris), encore appelée gesse sauvage, est une espèce de plante herbacée vivace de la famille des Fabaceae (de la sous-famille des Faboideae selon la classification phylogénétique).
@@ -513,11 +525,48 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce de plante grimpante aux tiges ailées, aux feuilles à vrilles ramifiées, à deux folioles linéaires à lancéolées, aux stipules étroites. Les fleurs sont rose-pourpre, disposées en grappes, à longs pédoncules.
-Caractéristiques
-Organes reproducteurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Gesse_des_bois</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gesse_des_bois</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : rose
 Période de floraison : juillet-septembre
 Inflorescence : racème simple
@@ -534,31 +583,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Gesse_des_bois</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Gesse_des_bois</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lathyrus variegatus Gilib.
 Sur les autres projets Wikimedia :
